--- a/biology/Zoologie/Caudata/Caudata.xlsx
+++ b/biology/Zoologie/Caudata/Caudata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Urodela · Urodèles
 Les Urodèles (Caudata ou Urodela) forment un ordre d'amphibiens qui gardent une queue à l'état adulte, à la différence des anoures (comme les grenouilles et les crapauds) et des gymnophiones.
@@ -514,9 +526,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Marie Constant Duméril[1] crée le terme français « urodèles » en 1806. Pierre André Latreille[2] le traduit en latin en « Urodela » en 1825.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Marie Constant Duméril crée le terme français « urodèles » en 1806. Pierre André Latreille le traduit en latin en « Urodela » en 1825.
 Le nom « urodèle » vient du grec οὐρά / ourá, « queue », et δῆλος / dễlos, « visible », soit « à queue visible » car, chez ces animaux, la queue persiste après la métamorphose, contrairement, par exemple, aux anoures.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des familles actuelles selon Amphibian Species of the World                      (10 octobre 2013)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des familles actuelles selon Amphibian Species of the World                      (10 octobre 2013) :
 Ambystomatidae Gray, 1850
 Amphiumidae Gray, 1825
 Cryptobranchidae Fitzinger, 1826
@@ -558,7 +574,7 @@
 Rhyacotritonidae Tihen, 1958
 Salamandridae Goldfuss, 1820
 Sirenidae Gray, 1825
-et les familles fossiles[4] :
+et les familles fossiles :
 †Batrachosauroididae Auffenberg, 1958
 †Karauridae Ivachnenko, 1978
 †Scapherpetontidae Auffenberg &amp; Goin, 1959</t>
@@ -589,9 +605,11 @@
           <t>Place au sein des amphibiens modernes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phylogénie des ordres d'amphibiens modernes d'après Marjanovic &amp; Laurin (2007)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des ordres d'amphibiens modernes d'après Marjanovic &amp; Laurin (2007) :
 </t>
         </is>
       </c>
@@ -620,7 +638,9 @@
           <t>Quelques exemples d'urodèles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Famille des Cryptobranchidés :
 Ménopome ou salamandre-aligator (Cryptobranchus alleghaniensis) de l'est de l'Amérique du Nord,
@@ -704,10 +724,12 @@
           <t>Répartition actuelle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Urodèles actuels sont répartis essentiellement dans l'Holarctique : Dans les régions tempérées à subtropicales de l'hémisphère Nord, particulièrement en Amérique du Nord, en Europe, dans le nord du Moyen-Orient et en Asie orientale. L'Amérique du Nord constitue sans conteste le centre de diversité actuel, en nombre de familles, de genres et d'espèces. Seule la famille des Plethodontidae s'est répandue jusqu'en Amérique du Sud depuis la connexion de l'Isthme de Panama et n'occupe qu'une partie de ce continent. Les Urodèles sont absents d'Afrique à l’exception de quelques espèces présentes au Maghreb, absents de la majeure partie de l'Asie tropicale et entièrement absents d'Océanie. 
-Aux États-Unis, le parc national des Great Smoky Mountains abrite 27 espèces différentes[6].
+Aux États-Unis, le parc national des Great Smoky Mountains abrite 27 espèces différentes.
 </t>
         </is>
       </c>
@@ -736,7 +758,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fischer von Waldheim, 1813 : Zoognosia tabulis synopticis illustrata : in usum praelectionum Academiae imperialis medico-chirugicae mosquensis edita, vol. 1 (texte intégral).</t>
         </is>
